--- a/files/DoS_Direct_linking_tool_v7.7_Pathways v23.2.1_21.12.2020.xlsx
+++ b/files/DoS_Direct_linking_tool_v7.7_Pathways v23.2.1_21.12.2020.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andria\Documents\GitHub\nhs111-implementation-site\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D95FCC-AAA7-4D32-B49B-45F5EE14CC4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79B0EE0-00C4-43CB-A53D-FC23A7FEBF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="1" r:id="rId1"/>
@@ -1182,9 +1182,6 @@
     <t>Attend Emergency Treatment Centre within 4 hours for Sexual Assault Assessment</t>
   </si>
   <si>
-    <t>v7.6</t>
-  </si>
-  <si>
     <t>?answers=0,2,0,2,2,2,2,2,2,2,2,2,2,2,2,3,1</t>
   </si>
   <si>
@@ -1195,6 +1192,9 @@
   </si>
   <si>
     <t>?answers=0,0,2,2,0,2,0,2,3,2,2,2,2,2,2,2,0,0,2</t>
+  </si>
+  <si>
+    <t>v7.7</t>
   </si>
 </sst>
 </file>
@@ -2293,17 +2293,17 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="5" xfId="93" applyFont="1"/>
     <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="95">
@@ -2886,7 +2886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:R31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
@@ -3029,17 +3029,17 @@
     <row r="8" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="7"/>
@@ -3049,17 +3049,17 @@
     <row r="9" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="7"/>
@@ -3069,15 +3069,15 @@
     <row r="10" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="7"/>
@@ -3087,17 +3087,17 @@
     <row r="11" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="102" t="s">
+      <c r="E11" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="7"/>
@@ -3107,17 +3107,17 @@
     <row r="12" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="7"/>
@@ -3191,17 +3191,17 @@
     <row r="16" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="103" t="s">
         <v>297</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
       <c r="N16" s="43"/>
       <c r="O16" s="43"/>
       <c r="P16" s="7"/>
@@ -3211,17 +3211,17 @@
     <row r="17" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="100" t="s">
+      <c r="E17" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
       <c r="N17" s="43"/>
       <c r="O17" s="43"/>
       <c r="P17" s="7"/>
@@ -3232,16 +3232,16 @@
       <c r="C18" s="5"/>
       <c r="D18" s="1"/>
       <c r="E18" s="43"/>
-      <c r="F18" s="100" t="s">
+      <c r="F18" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43"/>
       <c r="P18" s="7"/>
@@ -3251,18 +3251,18 @@
     <row r="19" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="100" t="s">
+      <c r="E19" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
       <c r="O19" s="43"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="1"/>
@@ -3272,18 +3272,18 @@
       <c r="C20" s="5"/>
       <c r="D20" s="1"/>
       <c r="E20" s="43"/>
-      <c r="F20" s="100" t="s">
+      <c r="F20" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3379,7 +3379,7 @@
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="24" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -3465,18 +3465,18 @@
       <c r="R31" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aGunApefuTY5XPJeQNm5rhEfB7d/C/TNGhKlGVWSaEBIFlpVuD8k0MJ2te8A9X3ANHLnjm2SwkKzA3OMLXGIrA==" saltValue="4Yir4vhnLupsLHHWhezpww==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="U8W7rCKZviwKtZ5JsD9HcAxD8Ih3UHcDO0BU0tw5MjEj7t1Y6LvCT80ab58rF2tuH9zVaOQzdPSeUG2HsGNjVw==" saltValue="I5PaQZAYBbZ36W5ozPhoNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="F20:O20"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="E17:M17"/>
+    <mergeCell ref="F18:M18"/>
     <mergeCell ref="E8:M8"/>
     <mergeCell ref="E9:M9"/>
     <mergeCell ref="E11:M11"/>
     <mergeCell ref="E12:M12"/>
     <mergeCell ref="E10:M10"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="F20:O20"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="E17:M17"/>
-    <mergeCell ref="F18:M18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6960,7 +6960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8324,7 +8324,7 @@
         <v>324</v>
       </c>
       <c r="E57" s="57" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G57" s="42" t="str">
         <f>Control!$B$2&amp;Links!D57&amp;Checker!$A$2&amp;"/"&amp;Links!E57&amp;"&amp;dos="&amp;Checker!$B$2&amp;""&amp;Checker!$A$128</f>
@@ -8828,7 +8828,7 @@
         <v>366</v>
       </c>
       <c r="E78" s="97" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G78" s="42" t="str">
         <f>Control!$B$2&amp;Links!D78&amp;Checker!$A$2&amp;"/"&amp;Links!E78&amp;"&amp;dos="&amp;Checker!$B$2&amp;""&amp;Checker!$A$128</f>
@@ -8849,7 +8849,7 @@
         <v>366</v>
       </c>
       <c r="E79" s="97" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G79" s="42" t="str">
         <f>Control!$B$2&amp;Links!D79&amp;Checker!$A$2&amp;"/"&amp;Links!E79&amp;"&amp;dos="&amp;Checker!$B$2&amp;""&amp;Checker!$A$128</f>
@@ -8870,7 +8870,7 @@
         <v>324</v>
       </c>
       <c r="E80" s="97" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G80" s="42" t="str">
         <f>Control!$B$2&amp;Links!D80&amp;Checker!$A$2&amp;"/"&amp;Links!E80&amp;"&amp;dos="&amp;Checker!$B$2&amp;""&amp;Checker!$A$128</f>
@@ -8878,6 +8878,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="0damMphCSTXDlSZ5/yGmJ/gk/z3IJfluREM1kMdbxYbIa7aGeYdxK861hb6GI9pMIS6Fz8E9GCtrch2tMhvuFg==" saltValue="XXqwhIltkd0I1QHAyVhE6g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:E75" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="52" type="noConversion"/>
   <conditionalFormatting sqref="H3:H6">
